--- a/Running projects/J. Lucky One Mall Karachi/VO/01- variation order for Gate valve.xlsx
+++ b/Running projects/J. Lucky One Mall Karachi/VO/01- variation order for Gate valve.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EB6A2-58D3-4F3D-B87E-5A3E053946A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741D634-376C-4EF2-8FCE-172D1B59CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4875" yWindow="4875" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
